--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/high-value/predh-high-value-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/high-value/predh-high-value-rare.xlsx
@@ -61,13 +61,36 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Counter target spell.
+At the beginning of your next upkeep, pay {3}{U}{U}. If you don't, you lose the game.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t>➤ 0 generic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
 Finish: normal
 Keywords:
 ➤ Fading</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Fading 5 (This enchantment enters with five fade counters on it. At the beginning of your upkeep, remove a fade counter from it. If you can't, sacrifice it.)
@@ -76,34 +99,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
 ➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Counter target spell.
-At the beginning of your next upkeep, pay {3}{U}{U}. If you don't, you lose the game.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 0 generic</t>
         </r>
       </text>
     </comment>
@@ -120,8 +120,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Game Changer
-Border: black
+          <t xml:space="preserve">Border: borderless
 Finish: normal</t>
         </r>
       </text>
@@ -129,16 +128,15 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Skip your draw step.
-Whenever you discard a card, exile that card from your graveyard.
-Pay 1 life: Exile the top card of your library face down. Put that card into your hand at the beginning of your next end step.</t>
+          <t>Destroy all creatures. They can't be regenerated.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t>➤ 3 black</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 black</t>
         </r>
       </text>
     </comment>
@@ -154,21 +152,24 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>Search your library for a card, then shuffle and put that card on top. You lose 2 life.</t>
+          <t xml:space="preserve">Skip your draw step.
+Whenever you discard a card, exile that card from your graveyard.
+Pay 1 life: Exile the top card of your library face down. Put that card into your hand at the beginning of your next end step.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t>➤ 1 black</t>
+          <t>➤ 3 black</t>
         </r>
       </text>
     </comment>
     <comment ref="D5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: borderless
+          <t xml:space="preserve">Game Changer
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -176,15 +177,14 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Destroy all creatures. They can't be regenerated.</t>
+          <t>Search your library for a card, then shuffle and put that card on top. You lose 2 life.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 2 black</t>
+          <t>➤ 1 black</t>
         </r>
       </text>
     </comment>
@@ -481,7 +481,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">Border: borderless
 Finish: normal</t>
         </r>
       </text>
@@ -489,8 +489,8 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">({T}: Add {G} or {U}.)
-As this land enters, you may pay 2 life. If you don't, it enters tapped.</t>
+          <t xml:space="preserve">{T}: Add {C}.
+{1}{U}, {T}: Put target artifact card from your graveyard on top of your library.</t>
         </r>
       </text>
     </comment>
@@ -505,7 +505,7 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">({T}: Add {W} or {U}.)
+          <t xml:space="preserve">({T}: Add {G} or {U}.)
 As this land enters, you may pay 2 life. If you don't, it enters tapped.</t>
         </r>
       </text>
@@ -521,8 +521,8 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {C}.
-{1}: This land becomes a 1/1 Phyrexian Blinkmoth artifact creature with flying and infect until end of turn. It's still a land. (It deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)</t>
+          <t xml:space="preserve">({T}: Add {W} or {U}.)
+As this land enters, you may pay 2 life. If you don't, it enters tapped.</t>
         </r>
       </text>
     </comment>
@@ -537,7 +537,8 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Plains or Swamp card, put it onto the battlefield, then shuffle.</t>
+          <t xml:space="preserve">{T}: Add {C}.
+{1}: This land becomes a 1/1 Phyrexian Blinkmoth artifact creature with flying and infect until end of turn. It's still a land. (It deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)</t>
         </r>
       </text>
     </comment>
@@ -552,7 +553,7 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Forest or Island card, put it onto the battlefield, then shuffle.</t>
+          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Plains or Swamp card, put it onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
@@ -567,8 +568,7 @@
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {C}.
-{U/B}, {T}: Add {U}{U}, {U}{B}, or {B}{B}.</t>
+          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Forest or Island card, put it onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
@@ -583,8 +583,8 @@
     <comment ref="E9" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">({T}: Add {G} or {W}.)
-As this land enters, you may pay 2 life. If you don't, it enters tapped.</t>
+          <t xml:space="preserve">{T}: Add {C}.
+{U/B}, {T}: Add {U}{U}, {U}{B}, or {B}{B}.</t>
         </r>
       </text>
     </comment>
@@ -599,7 +599,8 @@
     <comment ref="E10" authorId="0">
       <text>
         <r>
-          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Swamp or Forest card, put it onto the battlefield, then shuffle.</t>
+          <t xml:space="preserve">({T}: Add {G} or {W}.)
+As this land enters, you may pay 2 life. If you don't, it enters tapped.</t>
         </r>
       </text>
     </comment>
@@ -614,15 +615,15 @@
     <comment ref="E11" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {C}.
-{1}{U}, {T}: Put target artifact card from your graveyard on top of your library.</t>
+          <t xml:space="preserve">{T}: Add {B}.
+{T}: Target creature loses first strike or swampwalk until end of turn.</t>
         </r>
       </text>
     </comment>
     <comment ref="D12" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: borderless
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -630,8 +631,7 @@
     <comment ref="E12" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {B}.
-{T}: Target creature loses first strike or swampwalk until end of turn.</t>
+          <t>Each land is a Swamp in addition to its other land types.</t>
         </r>
       </text>
     </comment>
@@ -646,7 +646,7 @@
     <comment ref="E13" authorId="0">
       <text>
         <r>
-          <t>Each land is a Swamp in addition to its other land types.</t>
+          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Swamp or Forest card, put it onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
@@ -738,6 +738,33 @@
     <t>Predh - High Value (Rare) - Blue</t>
   </si>
   <si>
+    <t>Pact of Negation</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>tsr</t>
+  </si>
+  <si>
+    <t>Time Spiral Remastered</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>16.54</t>
+  </si>
+  <si>
+    <t>Open Pact of Negation</t>
+  </si>
+  <si>
     <t>Parallax Tide</t>
   </si>
   <si>
@@ -756,40 +783,40 @@
     <t>{2}{U}{U}</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>56.17</t>
   </si>
   <si>
     <t>Open Parallax Tide</t>
   </si>
   <si>
-    <t>Pact of Negation</t>
+    <t>Predh - High Value (Rare) - Black</t>
   </si>
   <si>
-    <t>Instant</t>
+    <t>Damnation</t>
   </si>
   <si>
-    <t>tsr</t>
+    <t>Sorcery</t>
   </si>
   <si>
-    <t>Time Spiral Remastered</t>
+    <t>2x2</t>
   </si>
   <si>
-    <t>77</t>
+    <t>Double Masters 2022</t>
   </si>
   <si>
-    <t>{0}</t>
+    <t>353</t>
   </si>
   <si>
-    <t>16.54</t>
+    <t>{2}{B}{B}</t>
   </si>
   <si>
-    <t>Open Pact of Negation</t>
+    <t>B</t>
   </si>
   <si>
-    <t>Predh - High Value (Rare) - Black</t>
+    <t>19.35</t>
+  </si>
+  <si>
+    <t>Open Damnation</t>
   </si>
   <si>
     <t>Necropotence</t>
@@ -805,9 +832,6 @@
   </si>
   <si>
     <t>{B}{B}{B}</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>30.83</t>
@@ -835,30 +859,6 @@
   </si>
   <si>
     <t>Open Vampiric Tutor</t>
-  </si>
-  <si>
-    <t>Damnation</t>
-  </si>
-  <si>
-    <t>Sorcery</t>
-  </si>
-  <si>
-    <t>2x2</t>
-  </si>
-  <si>
-    <t>Double Masters 2022</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>{2}{B}{B}</t>
-  </si>
-  <si>
-    <t>19.35</t>
-  </si>
-  <si>
-    <t>Open Damnation</t>
   </si>
   <si>
     <t>Predh - High Value (Rare) - Green</t>
@@ -1080,6 +1080,30 @@
     <t>Predh - High Value (Rare) - Land</t>
   </si>
   <si>
+    <t>Academy Ruins</t>
+  </si>
+  <si>
+    <t>Land - Legendary</t>
+  </si>
+  <si>
+    <t>Legendary Land</t>
+  </si>
+  <si>
+    <t>sld</t>
+  </si>
+  <si>
+    <t>Secret Lair Drop</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>18.38</t>
+  </si>
+  <si>
+    <t>Open Academy Ruins</t>
+  </si>
+  <si>
     <t>Breeding Pool</t>
   </si>
   <si>
@@ -1087,12 +1111,6 @@
   </si>
   <si>
     <t>Land — Forest Island</t>
-  </si>
-  <si>
-    <t>sld</t>
-  </si>
-  <si>
-    <t>Secret Lair Drop</t>
   </si>
   <si>
     <t>132</t>
@@ -1227,42 +1245,6 @@
     <t>Open Temple Garden</t>
   </si>
   <si>
-    <t>Verdant Catacombs</t>
-  </si>
-  <si>
-    <t>mm3</t>
-  </si>
-  <si>
-    <t>Modern Masters 2017</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>24.14</t>
-  </si>
-  <si>
-    <t>Open Verdant Catacombs</t>
-  </si>
-  <si>
-    <t>Academy Ruins</t>
-  </si>
-  <si>
-    <t>Land - Legendary</t>
-  </si>
-  <si>
-    <t>Legendary Land</t>
-  </si>
-  <si>
-    <t>1506</t>
-  </si>
-  <si>
-    <t>18.38</t>
-  </si>
-  <si>
-    <t>Open Academy Ruins</t>
-  </si>
-  <si>
     <t>Urborg</t>
   </si>
   <si>
@@ -1291,6 +1273,24 @@
   </si>
   <si>
     <t>Open Urborg, Tomb of Yawgmoth</t>
+  </si>
+  <si>
+    <t>Verdant Catacombs</t>
+  </si>
+  <si>
+    <t>mm3</t>
+  </si>
+  <si>
+    <t>Modern Masters 2017</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>Open Verdant Catacombs</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1374,39 +1374,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,24 +1403,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1459,12 +1413,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5260,7 +5208,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>33</v>
@@ -5304,7 +5252,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>33</v>
@@ -8629,42 +8577,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -8679,74 +8627,74 @@
         <v>37</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="13">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="15">
-        <v>4</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12068,10 +12016,10 @@
         <v>70</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>71</v>
@@ -15456,10 +15404,10 @@
         <v>86</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>87</v>
@@ -15484,46 +15432,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>4</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -18872,46 +18820,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18960,46 +18908,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -19048,46 +18996,46 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>4</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22431,62 +22379,62 @@
         <v>108</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="I4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="M4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -22495,10 +22443,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>158</v>
@@ -22519,7 +22467,7 @@
         <v>108</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>161</v>
@@ -22529,46 +22477,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -22583,10 +22531,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>170</v>
@@ -22617,52 +22565,52 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -22671,19 +22619,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>108</v>
@@ -22695,150 +22643,150 @@
         <v>108</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="F10" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="19">
+      <c r="G10" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="E12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J12" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="M12" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="N12" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -22847,16 +22795,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>209</v>
